--- a/xlsx/行政学_intext.xlsx
+++ b/xlsx/行政学_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="223">
   <si>
     <t>行政学</t>
   </si>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8%E5%9F%BA%E6%9C%AC%E4%B8%BB%E9%A1%8C%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>政治學基本主題列表</t>
+    <t>政治学基本主题列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E5%BB%BA%E5%88%B6%E5%BA%A6_(%E6%AD%90%E6%B4%B2)</t>
   </si>
   <si>
-    <t>封建制度 (歐洲)</t>
+    <t>封建制度 (欧洲)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81%E6%94%BF%E4%BD%93</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%93%A1%E6%9C%83%E5%88%B6</t>
   </si>
   <si>
-    <t>委員會制</t>
+    <t>委员会制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E8%8B%B1%E6%94%BF%E6%B2%BB</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>國際關係理論</t>
+    <t>国际关系理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BE%83%E6%94%BF%E6%B2%BB%E5%AD%A6</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>權力分立</t>
+    <t>权力分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>司法機構</t>
+    <t>司法机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%80%89%E4%B8%BE%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治心理學</t>
+    <t>政治心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Biology_and_political_orientation</t>
@@ -335,13 +335,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>管理學</t>
+    <t>管理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E6%9C%BA%E5%85%B3</t>
@@ -359,31 +356,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%85%AC%E7%BE%A9</t>
   </si>
   <si>
-    <t>社會公義</t>
+    <t>社会公义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E6%95%88%E7%9B%8A</t>
   </si>
   <si>
-    <t>經濟效益</t>
+    <t>经济效益</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B</t>
   </si>
   <si>
-    <t>權力</t>
+    <t>权力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>國際關係</t>
+    <t>国际关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%8B%99%E5%93%A1</t>
   </si>
   <si>
-    <t>公務員</t>
+    <t>公务员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E4%B8%AD%E7%AB%8B</t>
@@ -401,25 +398,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%8B%89%E5%9C%96</t>
   </si>
   <si>
-    <t>柏拉圖</t>
+    <t>柏拉图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%87%8C%E6%96%AF%E5%A4%9A%E5%BE%B7</t>
   </si>
   <si>
-    <t>亞里斯多德</t>
+    <t>亚里斯多德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%9F%BA%E7%B6%AD%E5%88%A9</t>
   </si>
   <si>
-    <t>馬基維利</t>
+    <t>马基维利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>民族國家</t>
+    <t>民族国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E8%AE%BA</t>
@@ -431,19 +428,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%AD%90</t>
   </si>
   <si>
-    <t>西歐</t>
+    <t>西欧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%85%E8%B3%A6</t>
   </si>
   <si>
-    <t>稅賦</t>
+    <t>税赋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%B1%E8%A8%88%E5%AD%B8</t>
   </si>
   <si>
-    <t>統計學</t>
+    <t>统计学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E4%BA%8B%E5%8D%95%E4%BD%8D</t>
@@ -467,7 +464,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%AD%AF%E5%A3%AB</t>
   </si>
   <si>
-    <t>普魯士</t>
+    <t>普鲁士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E6%B3%95</t>
@@ -479,13 +476,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E5%AD%B8%E5%82%B3%E7%B5%B1%E7%90%86%E8%AB%96%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>行政學傳統理論時期</t>
+    <t>行政学传统理论时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E4%B9%9F%E7%B4%8D</t>
   </si>
   <si>
-    <t>維也納</t>
+    <t>维也纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%A6%E6%96%AF%C2%B7%E5%86%AF%C2%B7%E5%8F%B2%E5%9D%A6</t>
@@ -497,7 +494,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會學</t>
+    <t>社会学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%B3%95</t>
@@ -515,19 +512,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8D%E5%BE%B7%E7%BE%85%C2%B7%E5%A8%81%E7%88%BE%E9%81%9C</t>
   </si>
   <si>
-    <t>伍德羅·威爾遜</t>
+    <t>伍德罗·威尔逊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>美國總統</t>
+    <t>美国总统</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Political_Science_Quarterly</t>
@@ -551,7 +548,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E5%AD%B8%E4%BF%AE%E6%AD%A3%E7%90%86%E8%AB%96%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>行政學修正理論時期</t>
+    <t>行政学修正理论时期</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Luther_Gulick_(social_scientist)</t>
@@ -575,37 +572,37 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E6%88%B0</t>
   </si>
   <si>
-    <t>越戰</t>
+    <t>越战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E9%96%80%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>水門事件</t>
+    <t>水门事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E6%96%AF%C2%B7%E9%9F%8B%E4%BC%AF</t>
   </si>
   <si>
-    <t>馬克斯·韋伯</t>
+    <t>马克斯·韦伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E9%BB%A8%E4%BA%BA%E6%96%87%E9%9B%86</t>
   </si>
   <si>
-    <t>聯邦黨人文集</t>
+    <t>联邦党人文集</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%A1%8C%E6%94%BF%E7%A2%A9%E5%A3%AB</t>
   </si>
   <si>
-    <t>公共行政碩士</t>
+    <t>公共行政硕士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E7%8F%BE%E4%BB%A3%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>後現代主義</t>
+    <t>后现代主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E7%AE%A1%E7%90%86</t>
@@ -623,7 +620,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%B2%A1%E6%94%BF</t>
   </si>
   <si>
-    <t>公共財政</t>
+    <t>公共财政</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E7%AE%A1%E7%90%86</t>
@@ -635,7 +632,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E6%94%BF%E9%A0%90%E7%AE%97%E6%A1%88</t>
   </si>
   <si>
-    <t>財政預算案</t>
+    <t>财政预算案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%BB%E7%90%86</t>
@@ -647,7 +644,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E7%87%9F%E5%88%A9%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>非營利組織</t>
+    <t>非营利组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%94%BF%E5%BA%9C%E7%BB%84%E7%BB%87</t>
@@ -671,13 +668,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%A1%8C%E6%94%BF%E5%AD%A6</t>
@@ -2565,7 +2562,7 @@
         <v>105</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="G53" t="n">
         <v>11</v>
@@ -2591,10 +2588,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -2620,10 +2617,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2649,10 +2646,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2678,10 +2675,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2707,10 +2704,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2736,10 +2733,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>5</v>
@@ -2765,10 +2762,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -2794,10 +2791,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>5</v>
@@ -2823,10 +2820,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2852,10 +2849,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -2881,10 +2878,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2910,10 +2907,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2939,10 +2936,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -2968,10 +2965,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -2997,10 +2994,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3026,10 +3023,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3055,10 +3052,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3084,10 +3081,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3113,10 +3110,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3142,10 +3139,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3171,10 +3168,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3200,10 +3197,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3229,10 +3226,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3258,10 +3255,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3287,10 +3284,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3316,10 +3313,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3345,10 +3342,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>4</v>
@@ -3374,10 +3371,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" t="s">
         <v>161</v>
-      </c>
-      <c r="F81" t="s">
-        <v>162</v>
       </c>
       <c r="G81" t="n">
         <v>4</v>
@@ -3403,10 +3400,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" t="s">
         <v>163</v>
-      </c>
-      <c r="F82" t="s">
-        <v>164</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3432,10 +3429,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" t="s">
         <v>165</v>
-      </c>
-      <c r="F83" t="s">
-        <v>166</v>
       </c>
       <c r="G83" t="n">
         <v>4</v>
@@ -3461,10 +3458,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>166</v>
+      </c>
+      <c r="F84" t="s">
         <v>167</v>
-      </c>
-      <c r="F84" t="s">
-        <v>168</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3490,10 +3487,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>168</v>
+      </c>
+      <c r="F85" t="s">
         <v>169</v>
-      </c>
-      <c r="F85" t="s">
-        <v>170</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3519,10 +3516,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>170</v>
+      </c>
+      <c r="F86" t="s">
         <v>171</v>
-      </c>
-      <c r="F86" t="s">
-        <v>172</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3548,10 +3545,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>172</v>
+      </c>
+      <c r="F87" t="s">
         <v>173</v>
-      </c>
-      <c r="F87" t="s">
-        <v>174</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -3577,10 +3574,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>174</v>
+      </c>
+      <c r="F88" t="s">
         <v>175</v>
-      </c>
-      <c r="F88" t="s">
-        <v>176</v>
       </c>
       <c r="G88" t="n">
         <v>3</v>
@@ -3606,10 +3603,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>176</v>
+      </c>
+      <c r="F89" t="s">
         <v>177</v>
-      </c>
-      <c r="F89" t="s">
-        <v>178</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3635,10 +3632,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>178</v>
+      </c>
+      <c r="F90" t="s">
         <v>179</v>
-      </c>
-      <c r="F90" t="s">
-        <v>180</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3664,10 +3661,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>180</v>
+      </c>
+      <c r="F91" t="s">
         <v>181</v>
-      </c>
-      <c r="F91" t="s">
-        <v>182</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -3693,10 +3690,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>182</v>
+      </c>
+      <c r="F92" t="s">
         <v>183</v>
-      </c>
-      <c r="F92" t="s">
-        <v>184</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3722,10 +3719,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>166</v>
+      </c>
+      <c r="F93" t="s">
         <v>167</v>
-      </c>
-      <c r="F93" t="s">
-        <v>168</v>
       </c>
       <c r="G93" t="n">
         <v>5</v>
@@ -3751,10 +3748,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>184</v>
+      </c>
+      <c r="F94" t="s">
         <v>185</v>
-      </c>
-      <c r="F94" t="s">
-        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3780,10 +3777,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F95" t="s">
         <v>187</v>
-      </c>
-      <c r="F95" t="s">
-        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3809,10 +3806,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>188</v>
+      </c>
+      <c r="F96" t="s">
         <v>189</v>
-      </c>
-      <c r="F96" t="s">
-        <v>190</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3838,10 +3835,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>190</v>
+      </c>
+      <c r="F97" t="s">
         <v>191</v>
-      </c>
-      <c r="F97" t="s">
-        <v>192</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3867,10 +3864,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>192</v>
+      </c>
+      <c r="F98" t="s">
         <v>193</v>
-      </c>
-      <c r="F98" t="s">
-        <v>194</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -3896,10 +3893,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>194</v>
+      </c>
+      <c r="F99" t="s">
         <v>195</v>
-      </c>
-      <c r="F99" t="s">
-        <v>196</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -3925,10 +3922,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>196</v>
+      </c>
+      <c r="F100" t="s">
         <v>197</v>
-      </c>
-      <c r="F100" t="s">
-        <v>198</v>
       </c>
       <c r="G100" t="n">
         <v>6</v>
@@ -3954,10 +3951,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>106</v>
+      </c>
+      <c r="F101" t="s">
         <v>107</v>
-      </c>
-      <c r="F101" t="s">
-        <v>108</v>
       </c>
       <c r="G101" t="n">
         <v>19</v>
@@ -3983,10 +3980,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>198</v>
+      </c>
+      <c r="F102" t="s">
         <v>199</v>
-      </c>
-      <c r="F102" t="s">
-        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>3</v>
@@ -4012,10 +4009,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>200</v>
+      </c>
+      <c r="F103" t="s">
         <v>201</v>
-      </c>
-      <c r="F103" t="s">
-        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4041,10 +4038,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>192</v>
+      </c>
+      <c r="F104" t="s">
         <v>193</v>
-      </c>
-      <c r="F104" t="s">
-        <v>194</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4070,10 +4067,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>202</v>
+      </c>
+      <c r="F105" t="s">
         <v>203</v>
-      </c>
-      <c r="F105" t="s">
-        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4099,10 +4096,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>204</v>
+      </c>
+      <c r="F106" t="s">
         <v>205</v>
-      </c>
-      <c r="F106" t="s">
-        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4128,10 +4125,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>206</v>
+      </c>
+      <c r="F107" t="s">
         <v>207</v>
-      </c>
-      <c r="F107" t="s">
-        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -4157,10 +4154,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>208</v>
+      </c>
+      <c r="F108" t="s">
         <v>209</v>
-      </c>
-      <c r="F108" t="s">
-        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4186,10 +4183,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>210</v>
+      </c>
+      <c r="F109" t="s">
         <v>211</v>
-      </c>
-      <c r="F109" t="s">
-        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4215,10 +4212,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>212</v>
+      </c>
+      <c r="F110" t="s">
         <v>213</v>
-      </c>
-      <c r="F110" t="s">
-        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4244,10 +4241,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>214</v>
+      </c>
+      <c r="F111" t="s">
         <v>215</v>
-      </c>
-      <c r="F111" t="s">
-        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4273,10 +4270,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>216</v>
+      </c>
+      <c r="F112" t="s">
         <v>217</v>
-      </c>
-      <c r="F112" t="s">
-        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4302,10 +4299,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>218</v>
+      </c>
+      <c r="F113" t="s">
         <v>219</v>
-      </c>
-      <c r="F113" t="s">
-        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4331,10 +4328,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>220</v>
+      </c>
+      <c r="F114" t="s">
         <v>221</v>
-      </c>
-      <c r="F114" t="s">
-        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>5</v>
@@ -4360,10 +4357,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F115" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
